--- a/analysis/Balve/derived_data/Balve_lithic_analysis.xlsx
+++ b/analysis/Balve/derived_data/Balve_lithic_analysis.xlsx
@@ -239,7 +239,7 @@
     <t xml:space="preserve">HE-019</t>
   </si>
   <si>
-    <t xml:space="preserve">Keilmesser_point</t>
+    <t xml:space="preserve">Keilmesser_tip</t>
   </si>
   <si>
     <t xml:space="preserve">HE-020</t>

--- a/analysis/Balve/derived_data/Balve_lithic_analysis.xlsx
+++ b/analysis/Balve/derived_data/Balve_lithic_analysis.xlsx
@@ -1970,7 +1970,7 @@
         <v>24.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.294</v>
+        <v>0.1294</v>
       </c>
       <c r="W3" t="n">
         <v>18.7</v>
@@ -7144,7 +7144,7 @@
         <v>16.71</v>
       </c>
       <c r="V57" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="W57" t="n">
         <v>4.9</v>
@@ -13310,7 +13310,7 @@
         <v>11.33</v>
       </c>
       <c r="V120" t="n">
-        <v>0.34</v>
+        <v>0.034</v>
       </c>
       <c r="W120" t="n">
         <v>6</v>
@@ -13410,7 +13410,7 @@
         <v>16.64</v>
       </c>
       <c r="V121" t="n">
-        <v>0.28</v>
+        <v>0.028</v>
       </c>
       <c r="W121" t="n">
         <v>6.1</v>
@@ -18620,7 +18620,7 @@
         <v>19.11</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="W174" t="n">
         <v>3</v>
@@ -40924,7 +40924,7 @@
         <v>38</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="43">
@@ -41414,7 +41414,7 @@
         <v>38</v>
       </c>
       <c r="D77" t="n">
-        <v>0.34</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="78">
@@ -41428,7 +41428,7 @@
         <v>38</v>
       </c>
       <c r="D78" t="n">
-        <v>0.28</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="79">
@@ -42044,7 +42044,7 @@
         <v>38</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="123">
@@ -42870,7 +42870,7 @@
         <v>50</v>
       </c>
       <c r="D181" t="n">
-        <v>1.294</v>
+        <v>0.1294</v>
       </c>
     </row>
     <row r="182">
